--- a/docs/seed1.xlsx
+++ b/docs/seed1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D9BA10-B55A-4A8D-81EA-D4717324C8A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F91404-1C70-42F0-B4BB-0F537B876A69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
   <si>
     <t>EURCAD</t>
   </si>
@@ -267,18 +267,6 @@
   </si>
   <si>
     <t>PlanetMoodFeatures</t>
-  </si>
-  <si>
-    <t>SpecificSearchConcepts</t>
-  </si>
-  <si>
-    <t>GenericSearchConcepts</t>
-  </si>
-  <si>
-    <t>SpecificSentimentConcepts</t>
-  </si>
-  <si>
-    <t>GenericSentimentConcepts</t>
   </si>
   <si>
     <t>Global
@@ -328,24 +316,34 @@
 OECD.CLI</t>
   </si>
   <si>
-    <t>brexit
-forex
-stocks market
-raw material
-ibex
-dax
-ftse100
-nikkei
-nasdaq
-sp500
-bitcoin</t>
-  </si>
-  <si>
     <t xml:space="preserve">USAgov(from:potus)
 putin(putin, from:kremlinrussia_E)
 china(china, jingpin)
 canada(from:canadianPM, trudeau)
 </t>
+  </si>
+  <si>
+    <t>GenericSentimentTerms</t>
+  </si>
+  <si>
+    <t>SpecificSentimentTerms</t>
+  </si>
+  <si>
+    <t>SpecificSearchTerms</t>
+  </si>
+  <si>
+    <t>GenericSearchTerms</t>
+  </si>
+  <si>
+    <t>spainstocks(inditex, bbva)</t>
+  </si>
+  <si>
+    <t>brexit()
+forex()
+stocks market()
+raw materials(copper, gold, silver, natural gas)
+indexes(ibex, dax, ftse100, nikkei, nasdaq, sp500)
+bitcoin()</t>
   </si>
 </sst>
 </file>
@@ -1015,16 +1013,19 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="15.1796875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="23.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.26953125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="23.1796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="23.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.08984375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -1040,22 +1041,22 @@
         <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -1066,21 +1067,21 @@
         <v>50</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1339,7 +1340,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="19"/>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="6" t="s">
@@ -1422,7 +1423,7 @@
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="3"/>
@@ -1439,7 +1440,7 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="3"/>
@@ -1456,7 +1457,7 @@
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="3"/>
@@ -1532,7 +1533,9 @@
         <v>16</v>
       </c>
       <c r="C30" s="16"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E30" s="19"/>
       <c r="F30" s="3"/>
       <c r="G30" s="13"/>
